--- a/teste.xlsx
+++ b/teste.xlsx
@@ -14,36 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>FRUTAS</t>
+    <t>CATEGORY</t>
   </si>
   <si>
-    <t>LEGUMES</t>
+    <t>VALUES</t>
   </si>
   <si>
     <t>Maca</t>
   </si>
   <si>
-    <t>Cenoura</t>
+    <t>Uva</t>
   </si>
   <si>
     <t>Pera</t>
   </si>
   <si>
-    <t>Batata</t>
-  </si>
-  <si>
     <t>Morango</t>
-  </si>
-  <si>
-    <t>Cebola</t>
-  </si>
-  <si>
-    <t>Limao</t>
-  </si>
-  <si>
-    <t>Beringela</t>
   </si>
 </sst>
 </file>
@@ -99,37 +87,169 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="10"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>My fruits most liked</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fruits liked</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Maca</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Uva</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Morango</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="logo.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3371850" y="0"/>
+          <a:off x="0" y="3619500"/>
           <a:ext cx="12192000" cy="5705475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -449,32 +569,32 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
